--- a/data/final_results.xlsx
+++ b/data/final_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>strid</t>
   </si>
@@ -79,9 +79,6 @@
     <t>WA [%]</t>
   </si>
   <si>
-    <t>sr. vrijednost</t>
-  </si>
-  <si>
     <t>0dB</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>9dB</t>
   </si>
   <si>
-    <t>sr.vrijednost</t>
-  </si>
-  <si>
     <t>“Odjek” model, govor s jekom</t>
   </si>
   <si>
@@ -143,6 +137,9 @@
   </si>
   <si>
     <t>RTF</t>
+  </si>
+  <si>
+    <t>sr. vr.</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -208,6 +205,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,15 +510,20 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
-    <col min="2" max="2" width="43.85546875"/>
-    <col min="3" max="3" width="20.7109375"/>
-    <col min="4" max="1025" width="11.5703125"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -811,7 +814,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
@@ -820,24 +823,24 @@
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>35</v>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <v>0.56899999999999995</v>
@@ -866,8 +869,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>36</v>
+      <c r="B16" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>0.68600000000000005</v>
@@ -896,8 +899,8 @@
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>37</v>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="6">
         <v>0.81599999999999995</v>
@@ -926,8 +929,8 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>38</v>
+      <c r="B18" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="6">
         <v>0.83289999999999997</v>
@@ -956,8 +959,8 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
+      <c r="B19" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="6">
         <v>0.9375</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" x14ac:dyDescent="0.2">
@@ -995,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -1004,24 +1007,24 @@
         <v>4</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="J23" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>37</v>
+      <c r="B24" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="6">
         <v>0.83099999999999996</v>
@@ -1050,8 +1053,8 @@
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>39</v>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="6">
         <v>0.84799999999999998</v>
@@ -1081,24 +1084,24 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>10</v>
@@ -1109,7 +1112,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5">
         <f>C29/18</f>
@@ -1122,18 +1125,18 @@
     </row>
     <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4">
         <v>12523.7</v>
@@ -1144,7 +1147,7 @@
     </row>
     <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>

--- a/data/final_results.xlsx
+++ b/data/final_results.xlsx
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -206,6 +206,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +511,16 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B28" sqref="B28:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
@@ -1138,10 +1140,10 @@
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="8">
         <v>12523.7</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="8">
         <v>4843.3</v>
       </c>
     </row>
